--- a/nearly final - Copy/data/Book1.xlsx
+++ b/nearly final - Copy/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/132bfba4ff4d531a/Máy tính/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{8750D5A9-DE12-4664-A73B-2A3F82D87C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50528C1B-2C08-4EA2-B2E0-2D8F8EC0207F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{8750D5A9-DE12-4664-A73B-2A3F82D87C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F20445E9-5228-4EF6-BA39-3C0431D6C3E0}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6855" windowWidth="16440" windowHeight="28440" xr2:uid="{E0E13E96-9404-4DAF-A29F-8061F7EDD4E4}"/>
+    <workbookView xWindow="3615" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{E0E13E96-9404-4DAF-A29F-8061F7EDD4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
     <t>Lĩnh vực Xây dựng</t>
   </si>
   <si>
-    <t>Lĩnh vực Tâm lý học</t>
+    <t>Lĩnh vực Ngôn ngữ học</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171788FE-1EC8-4D89-94F4-861F23653A4C}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
